--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="H2">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="I2">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="J2">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="N2">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="O2">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="P2">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="Q2">
-        <v>530.3227278151692</v>
+        <v>944.3186618203358</v>
       </c>
       <c r="R2">
-        <v>4772.904550336521</v>
+        <v>8498.867956383023</v>
       </c>
       <c r="S2">
-        <v>0.2618460598729267</v>
+        <v>0.3154837374793049</v>
       </c>
       <c r="T2">
-        <v>0.2618460598729267</v>
+        <v>0.3154837374793049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="H3">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="I3">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="J3">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="N3">
         <v>14.070071</v>
       </c>
       <c r="O3">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="P3">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="Q3">
-        <v>108.0053215434424</v>
+        <v>144.1233407545172</v>
       </c>
       <c r="R3">
-        <v>972.0478938909812</v>
+        <v>1297.110066790655</v>
       </c>
       <c r="S3">
-        <v>0.0533274672348485</v>
+        <v>0.04814960461714275</v>
       </c>
       <c r="T3">
-        <v>0.0533274672348485</v>
+        <v>0.04814960461714275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="H4">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="I4">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="J4">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="N4">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="O4">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="P4">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="Q4">
-        <v>397.363459182281</v>
+        <v>591.6336945242678</v>
       </c>
       <c r="R4">
-        <v>3576.271132640529</v>
+        <v>5324.703250718409</v>
       </c>
       <c r="S4">
-        <v>0.1961976182937047</v>
+        <v>0.1976565927516501</v>
       </c>
       <c r="T4">
-        <v>0.1961976182937047</v>
+        <v>0.1976565927516501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="H5">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="I5">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="J5">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="N5">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="O5">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="P5">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="Q5">
-        <v>0.6841837762700002</v>
+        <v>1.165733761725</v>
       </c>
       <c r="R5">
-        <v>6.157653986430001</v>
+        <v>10.491603855525</v>
       </c>
       <c r="S5">
-        <v>0.0003378147242215086</v>
+        <v>0.0003894554443580228</v>
       </c>
       <c r="T5">
-        <v>0.0003378147242215086</v>
+        <v>0.0003894554443580228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="H6">
         <v>14.070071</v>
       </c>
       <c r="I6">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="J6">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="N6">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="O6">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="P6">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="Q6">
-        <v>108.0053215434424</v>
+        <v>144.1233407545172</v>
       </c>
       <c r="R6">
-        <v>972.0478938909812</v>
+        <v>1297.110066790655</v>
       </c>
       <c r="S6">
-        <v>0.0533274672348485</v>
+        <v>0.04814960461714275</v>
       </c>
       <c r="T6">
-        <v>0.0533274672348485</v>
+        <v>0.04814960461714275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="H7">
         <v>14.070071</v>
       </c>
       <c r="I7">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="J7">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="N7">
         <v>14.070071</v>
       </c>
       <c r="O7">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="P7">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="Q7">
-        <v>21.99632199389345</v>
+        <v>21.99632199389344</v>
       </c>
       <c r="R7">
-        <v>197.9668979450411</v>
+        <v>197.966897945041</v>
       </c>
       <c r="S7">
-        <v>0.01086065134248703</v>
+        <v>0.007348665396546011</v>
       </c>
       <c r="T7">
-        <v>0.01086065134248703</v>
+        <v>0.007348665396546011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="H8">
         <v>14.070071</v>
       </c>
       <c r="I8">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="J8">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="N8">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="O8">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="P8">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="Q8">
-        <v>80.92688834100767</v>
+        <v>90.29602824263354</v>
       </c>
       <c r="R8">
-        <v>728.341995069069</v>
+        <v>812.6642541837019</v>
       </c>
       <c r="S8">
-        <v>0.03995753102487158</v>
+        <v>0.03016664778667984</v>
       </c>
       <c r="T8">
-        <v>0.03995753102487159</v>
+        <v>0.03016664778667984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="H9">
         <v>14.070071</v>
       </c>
       <c r="I9">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="J9">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="N9">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="O9">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="P9">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="Q9">
-        <v>0.1393406031366667</v>
+        <v>0.1779160477949999</v>
       </c>
       <c r="R9">
-        <v>1.25406542823</v>
+        <v>1.601244430155</v>
       </c>
       <c r="S9">
-        <v>6.879921602072006E-05</v>
+        <v>5.943927827044504E-05</v>
       </c>
       <c r="T9">
-        <v>6.879921602072006E-05</v>
+        <v>5.943927827044504E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="H10">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="I10">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="J10">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="N10">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="O10">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="P10">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="Q10">
-        <v>397.363459182281</v>
+        <v>591.6336945242678</v>
       </c>
       <c r="R10">
-        <v>3576.271132640529</v>
+        <v>5324.703250718409</v>
       </c>
       <c r="S10">
-        <v>0.1961976182937047</v>
+        <v>0.1976565927516501</v>
       </c>
       <c r="T10">
-        <v>0.1961976182937047</v>
+        <v>0.1976565927516501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="H11">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="I11">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="J11">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="N11">
         <v>14.070071</v>
       </c>
       <c r="O11">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="P11">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="Q11">
-        <v>80.92688834100767</v>
+        <v>90.29602824263354</v>
       </c>
       <c r="R11">
-        <v>728.341995069069</v>
+        <v>812.6642541837019</v>
       </c>
       <c r="S11">
-        <v>0.03995753102487158</v>
+        <v>0.03016664778667984</v>
       </c>
       <c r="T11">
-        <v>0.03995753102487159</v>
+        <v>0.03016664778667984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="H12">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="I12">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="J12">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="N12">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="O12">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="P12">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="Q12">
-        <v>297.7389246427689</v>
+        <v>370.6698201025605</v>
       </c>
       <c r="R12">
-        <v>2679.65032178492</v>
+        <v>3336.028380923044</v>
       </c>
       <c r="S12">
-        <v>0.1470081522051661</v>
+        <v>0.1238356340340822</v>
       </c>
       <c r="T12">
-        <v>0.1470081522051662</v>
+        <v>0.1238356340340822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,46 +1216,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="H13">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="I13">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="J13">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="N13">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="O13">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="P13">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="Q13">
-        <v>0.51264940723</v>
+        <v>0.73035448749</v>
       </c>
       <c r="R13">
-        <v>4.613844665069999</v>
+        <v>6.57319038741</v>
       </c>
       <c r="S13">
-        <v>0.0002531198840607701</v>
+        <v>0.0002440012812560149</v>
       </c>
       <c r="T13">
-        <v>0.0002531198840607701</v>
+        <v>0.0002440012812560149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,22 +1272,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="H14">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="I14">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="J14">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.028737</v>
+        <v>30.72976833333333</v>
       </c>
       <c r="N14">
-        <v>69.08621100000001</v>
+        <v>92.18930499999999</v>
       </c>
       <c r="O14">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="P14">
-        <v>0.5117089601257014</v>
+        <v>0.5616793902924558</v>
       </c>
       <c r="Q14">
-        <v>0.6841837762700002</v>
+        <v>1.165733761725</v>
       </c>
       <c r="R14">
-        <v>6.157653986430001</v>
+        <v>10.491603855525</v>
       </c>
       <c r="S14">
-        <v>0.0003378147242215086</v>
+        <v>0.0003894554443580228</v>
       </c>
       <c r="T14">
-        <v>0.0003378147242215086</v>
+        <v>0.0003894554443580228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="H15">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="I15">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="J15">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,28 +1358,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.690023666666668</v>
+        <v>4.690023666666666</v>
       </c>
       <c r="N15">
         <v>14.070071</v>
       </c>
       <c r="O15">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="P15">
-        <v>0.1042144488182278</v>
+        <v>0.08572435707863904</v>
       </c>
       <c r="Q15">
-        <v>0.1393406031366667</v>
+        <v>0.1779160477949999</v>
       </c>
       <c r="R15">
-        <v>1.25406542823</v>
+        <v>1.601244430155</v>
       </c>
       <c r="S15">
-        <v>6.879921602072006E-05</v>
+        <v>5.943927827044504E-05</v>
       </c>
       <c r="T15">
-        <v>6.879921602072006E-05</v>
+        <v>5.943927827044504E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="H16">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="I16">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="J16">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.255113</v>
+        <v>19.25278733333333</v>
       </c>
       <c r="N16">
-        <v>51.76533899999999</v>
+        <v>57.758362</v>
       </c>
       <c r="O16">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="P16">
-        <v>0.3834164214078032</v>
+        <v>0.3519028758536682</v>
       </c>
       <c r="Q16">
-        <v>0.51264940723</v>
+        <v>0.73035448749</v>
       </c>
       <c r="R16">
-        <v>4.613844665069999</v>
+        <v>6.57319038741</v>
       </c>
       <c r="S16">
-        <v>0.0002531198840607701</v>
+        <v>0.0002440012812560149</v>
       </c>
       <c r="T16">
-        <v>0.0002531198840607701</v>
+        <v>0.0002440012812560149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="H17">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="I17">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="J17">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02971</v>
+        <v>0.037935</v>
       </c>
       <c r="N17">
-        <v>0.08913</v>
+        <v>0.113805</v>
       </c>
       <c r="O17">
-        <v>0.0006601696482674924</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="P17">
-        <v>0.0006601696482674925</v>
+        <v>0.0006933767752369208</v>
       </c>
       <c r="Q17">
-        <v>0.0008826841</v>
+        <v>0.001439064225</v>
       </c>
       <c r="R17">
-        <v>0.007944156900000001</v>
+        <v>0.012951578025</v>
       </c>
       <c r="S17">
-        <v>4.358239644936246E-07</v>
+        <v>4.807713524379514E-07</v>
       </c>
       <c r="T17">
-        <v>4.358239644936247E-07</v>
+        <v>4.807713524379514E-07</v>
       </c>
     </row>
   </sheetData>
